--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Thbs1-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Thbs1-Itga4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H2">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I2">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J2">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N2">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O2">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P2">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q2">
-        <v>10.039940555766</v>
+        <v>18.2125381548735</v>
       </c>
       <c r="R2">
-        <v>40.15976222306401</v>
+        <v>72.85015261949398</v>
       </c>
       <c r="S2">
-        <v>9.201957155467322E-05</v>
+        <v>6.438363851245956E-05</v>
       </c>
       <c r="T2">
-        <v>4.243640421993178E-05</v>
+        <v>2.936637620397843E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H3">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I3">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J3">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O3">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P3">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q3">
-        <v>0.899565019826</v>
+        <v>0.6269345806694999</v>
       </c>
       <c r="R3">
-        <v>5.397390118955999</v>
+        <v>3.761607484017</v>
       </c>
       <c r="S3">
-        <v>8.244828467875732E-06</v>
+        <v>2.216293471538145E-06</v>
       </c>
       <c r="T3">
-        <v>5.703366159103901E-06</v>
+        <v>1.516328745175267E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H4">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I4">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J4">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N4">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O4">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P4">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q4">
-        <v>1563.006864317734</v>
+        <v>1284.924900508944</v>
       </c>
       <c r="R4">
-        <v>9378.041185906404</v>
+        <v>7709.549403053664</v>
       </c>
       <c r="S4">
-        <v>0.01432550533468351</v>
+        <v>0.004542372930479691</v>
       </c>
       <c r="T4">
-        <v>0.009909678855810946</v>
+        <v>0.003107770128029195</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H5">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I5">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J5">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N5">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O5">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P5">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q5">
-        <v>43.858913373231</v>
+        <v>59.18868137413575</v>
       </c>
       <c r="R5">
-        <v>175.435653492924</v>
+        <v>236.754725496543</v>
       </c>
       <c r="S5">
-        <v>0.0004019823020904654</v>
+        <v>0.0002092395158333149</v>
       </c>
       <c r="T5">
-        <v>0.0001853810354967187</v>
+        <v>9.543738876314544E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H6">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I6">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J6">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N6">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O6">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P6">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q6">
-        <v>19.423321747984</v>
+        <v>1252.762279478238</v>
       </c>
       <c r="R6">
-        <v>116.539930487904</v>
+        <v>7516.573676869428</v>
       </c>
       <c r="S6">
-        <v>0.0001780215465908891</v>
+        <v>0.004428673974933504</v>
       </c>
       <c r="T6">
-        <v>0.0001231465358404735</v>
+        <v>0.003029980342152401</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>31.645482</v>
+        <v>22.0547115</v>
       </c>
       <c r="H7">
-        <v>63.290964</v>
+        <v>44.109423</v>
       </c>
       <c r="I7">
-        <v>0.03555980726701225</v>
+        <v>0.01098937797168511</v>
       </c>
       <c r="J7">
-        <v>0.02448461412159849</v>
+        <v>0.007456236747308206</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N7">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O7">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P7">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q7">
-        <v>2242.580278068306</v>
+        <v>492.9077607117569</v>
       </c>
       <c r="R7">
-        <v>13455.48166840984</v>
+        <v>2957.446564270541</v>
       </c>
       <c r="S7">
-        <v>0.02055403368362484</v>
+        <v>0.0017424916184546</v>
       </c>
       <c r="T7">
-        <v>0.01421826792407132</v>
+        <v>0.001192166183414311</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>249.682331</v>
       </c>
       <c r="I8">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J8">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N8">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O8">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P8">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q8">
-        <v>26.40498846001767</v>
+        <v>68.728307478053</v>
       </c>
       <c r="R8">
-        <v>158.429930760106</v>
+        <v>412.369844868318</v>
       </c>
       <c r="S8">
-        <v>0.0002420109672463629</v>
+        <v>0.0002429633072892728</v>
       </c>
       <c r="T8">
-        <v>0.0001674112646615843</v>
+        <v>0.0001662289997226277</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>249.682331</v>
       </c>
       <c r="I9">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J9">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O9">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P9">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q9">
         <v>2.365851056149889</v>
@@ -1013,10 +1013,10 @@
         <v>21.292659505349</v>
       </c>
       <c r="S9">
-        <v>2.168385353875973E-05</v>
+        <v>8.363584354809723E-06</v>
       </c>
       <c r="T9">
-        <v>2.249973246025418E-05</v>
+        <v>8.583211248482341E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>249.682331</v>
       </c>
       <c r="I10">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J10">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N10">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O10">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P10">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q10">
-        <v>4110.699459424177</v>
+        <v>4848.896562215534</v>
       </c>
       <c r="R10">
-        <v>36996.29513481759</v>
+        <v>43640.06905993981</v>
       </c>
       <c r="S10">
-        <v>0.03767600026565892</v>
+        <v>0.01714146599398909</v>
       </c>
       <c r="T10">
-        <v>0.03909360135801203</v>
+        <v>0.01759159918683357</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>249.682331</v>
       </c>
       <c r="I11">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J11">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N11">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O11">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P11">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q11">
-        <v>115.3487010263202</v>
+        <v>223.3591967308285</v>
       </c>
       <c r="R11">
-        <v>692.0922061579211</v>
+        <v>1340.155180384971</v>
       </c>
       <c r="S11">
-        <v>0.001057211244316999</v>
+        <v>0.0007896031656028612</v>
       </c>
       <c r="T11">
-        <v>0.0007313266561402742</v>
+        <v>0.0005402253774876031</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>249.682331</v>
       </c>
       <c r="I12">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J12">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N12">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O12">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P12">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q12">
-        <v>51.08322940380178</v>
+        <v>4727.525093357035</v>
       </c>
       <c r="R12">
-        <v>459.749064634216</v>
+        <v>42547.72584021332</v>
       </c>
       <c r="S12">
-        <v>0.0004681956887351598</v>
+        <v>0.01671240241645469</v>
       </c>
       <c r="T12">
-        <v>0.0004858120682634014</v>
+        <v>0.01715126844240944</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>249.682331</v>
       </c>
       <c r="I13">
-        <v>0.09352209759714787</v>
+        <v>0.04147040581646828</v>
       </c>
       <c r="J13">
-        <v>0.09659160077758067</v>
+        <v>0.04220618736172928</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N13">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O13">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P13">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q13">
-        <v>5897.973801154542</v>
+        <v>1860.076604833419</v>
       </c>
       <c r="R13">
-        <v>53081.76421039087</v>
+        <v>16740.68944350077</v>
       </c>
       <c r="S13">
-        <v>0.05405699557765167</v>
+        <v>0.006575607348777566</v>
       </c>
       <c r="T13">
-        <v>0.05609094969804312</v>
+        <v>0.006748282144027562</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H14">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I14">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J14">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N14">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O14">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P14">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q14">
-        <v>166.428837534807</v>
+        <v>769.350979024697</v>
       </c>
       <c r="R14">
-        <v>998.5730252088421</v>
+        <v>4616.105874148182</v>
       </c>
       <c r="S14">
-        <v>0.00152537858558335</v>
+        <v>0.002719753551180797</v>
       </c>
       <c r="T14">
-        <v>0.001055181758933469</v>
+        <v>0.00186078267269623</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H15">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I15">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J15">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O15">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P15">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q15">
-        <v>14.911797505677</v>
+        <v>26.48355376504456</v>
       </c>
       <c r="R15">
-        <v>134.206177551093</v>
+        <v>238.351983885401</v>
       </c>
       <c r="S15">
-        <v>0.0001366718468063431</v>
+        <v>9.362273054058894E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001418142758848137</v>
+        <v>9.608125413686896E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H16">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I16">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J16">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N16">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O16">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P16">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q16">
-        <v>25909.45773458094</v>
+        <v>54278.99295383158</v>
       </c>
       <c r="R16">
-        <v>233185.1196112285</v>
+        <v>488510.9365844842</v>
       </c>
       <c r="S16">
-        <v>0.2374692545944214</v>
+        <v>0.1918831428899266</v>
       </c>
       <c r="T16">
-        <v>0.2464042973892949</v>
+        <v>0.1969219751457188</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H17">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I17">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J17">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N17">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O17">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P17">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q17">
-        <v>727.0349787135495</v>
+        <v>2500.303339114047</v>
       </c>
       <c r="R17">
-        <v>4362.209872281297</v>
+        <v>15001.82003468428</v>
       </c>
       <c r="S17">
-        <v>0.006663530214634575</v>
+        <v>0.008838890273728164</v>
       </c>
       <c r="T17">
-        <v>0.004609501928923089</v>
+        <v>0.006047332435718642</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H18">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I18">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J18">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N18">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O18">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P18">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q18">
-        <v>321.9741034945681</v>
+        <v>52920.34959684553</v>
       </c>
       <c r="R18">
-        <v>2897.766931451112</v>
+        <v>476283.1463716097</v>
       </c>
       <c r="S18">
-        <v>0.002951005425849326</v>
+        <v>0.187080165840836</v>
       </c>
       <c r="T18">
-        <v>0.003062040261971169</v>
+        <v>0.1919928723968179</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>524.5768890000001</v>
+        <v>931.6556396666668</v>
       </c>
       <c r="H19">
-        <v>1573.730667</v>
+        <v>2794.966919</v>
       </c>
       <c r="I19">
-        <v>0.5894633891046084</v>
+        <v>0.4642235271927754</v>
       </c>
       <c r="J19">
-        <v>0.6088102578564109</v>
+        <v>0.4724599333108166</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N19">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O19">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P19">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q19">
-        <v>37174.52575384465</v>
+        <v>20821.86815740375</v>
       </c>
       <c r="R19">
-        <v>334570.7317846018</v>
+        <v>187396.8134166337</v>
       </c>
       <c r="S19">
-        <v>0.3407175484373134</v>
+        <v>0.07360795190656319</v>
       </c>
       <c r="T19">
-        <v>0.3535374222414034</v>
+        <v>0.07554088940572824</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H20">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I20">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J20">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N20">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O20">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P20">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q20">
-        <v>16.8767537297625</v>
+        <v>68.461970156091</v>
       </c>
       <c r="R20">
-        <v>67.50701491905001</v>
+        <v>273.847880624364</v>
       </c>
       <c r="S20">
-        <v>0.0001546813588009329</v>
+        <v>0.0002420217709853398</v>
       </c>
       <c r="T20">
-        <v>7.133396250888469E-05</v>
+        <v>0.0001103898838356766</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H21">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I21">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J21">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O21">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P21">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q21">
-        <v>1.5121341823875</v>
+        <v>2.356682862467</v>
       </c>
       <c r="R21">
-        <v>9.072805094324998</v>
+        <v>14.140097174802</v>
       </c>
       <c r="S21">
-        <v>1.385923938728516E-05</v>
+        <v>8.331173624198108E-06</v>
       </c>
       <c r="T21">
-        <v>9.587139043624968E-06</v>
+        <v>5.699966276871369E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H22">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I22">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J22">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N22">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O22">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P22">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q22">
-        <v>2627.354393235863</v>
+        <v>4830.106020556064</v>
       </c>
       <c r="R22">
-        <v>15764.12635941518</v>
+        <v>28980.63612333639</v>
       </c>
       <c r="S22">
-        <v>0.02408062321135991</v>
+        <v>0.0170750390395817</v>
       </c>
       <c r="T22">
-        <v>0.01665778882470645</v>
+        <v>0.01168228524480495</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H23">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I23">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J23">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N23">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O23">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P23">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q23">
-        <v>73.72514565635625</v>
+        <v>222.4936306711395</v>
       </c>
       <c r="R23">
-        <v>294.900582625425</v>
+        <v>889.9745226845581</v>
       </c>
       <c r="S23">
-        <v>0.0006757167812320956</v>
+        <v>0.0007865432795056145</v>
       </c>
       <c r="T23">
-        <v>0.0003116183870680081</v>
+        <v>0.0003587545901464222</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H24">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I24">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J24">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N24">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O24">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P24">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q24">
-        <v>32.6498564343</v>
+        <v>4709.204892859228</v>
       </c>
       <c r="R24">
-        <v>195.8991386058</v>
+        <v>28255.22935715537</v>
       </c>
       <c r="S24">
-        <v>0.0002992473694159888</v>
+        <v>0.01664763817786826</v>
       </c>
       <c r="T24">
-        <v>0.0002070045879763157</v>
+        <v>0.01138986900090428</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>53.1948375</v>
+        <v>82.90491900000001</v>
       </c>
       <c r="H25">
-        <v>106.389675</v>
+        <v>165.809838</v>
       </c>
       <c r="I25">
-        <v>0.05977466764766091</v>
+        <v>0.04130969886425121</v>
       </c>
       <c r="J25">
-        <v>0.0411576941520005</v>
+        <v>0.02802841939602839</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N25">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O25">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P25">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q25">
-        <v>3769.691151253387</v>
+        <v>1852.868398495242</v>
       </c>
       <c r="R25">
-        <v>22618.14690752033</v>
+        <v>11117.21039097145</v>
       </c>
       <c r="S25">
-        <v>0.03455053968746469</v>
+        <v>0.006550125422686103</v>
       </c>
       <c r="T25">
-        <v>0.02390036125069721</v>
+        <v>0.004481420710060188</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H26">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I26">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J26">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N26">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O26">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P26">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q26">
-        <v>5.011732015316333</v>
+        <v>288.865106831324</v>
       </c>
       <c r="R26">
-        <v>30.070392091898</v>
+        <v>1733.190640987944</v>
       </c>
       <c r="S26">
-        <v>4.593427921556676E-05</v>
+        <v>0.001021174888361965</v>
       </c>
       <c r="T26">
-        <v>3.177507144528767E-05</v>
+        <v>0.0006986605596052905</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H27">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I27">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J27">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O27">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P27">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q27">
-        <v>0.4490443727907777</v>
+        <v>9.943673038943556</v>
       </c>
       <c r="R27">
-        <v>4.041399355117</v>
+        <v>89.49305735049199</v>
       </c>
       <c r="S27">
-        <v>4.115648948689591E-06</v>
+        <v>3.515214875495639E-05</v>
       </c>
       <c r="T27">
-        <v>4.270504782755454E-06</v>
+        <v>3.607524068653104E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H28">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I28">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J28">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N28">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O28">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P28">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q28">
-        <v>780.2209085353226</v>
+        <v>20379.91440289299</v>
       </c>
       <c r="R28">
-        <v>7021.988176817904</v>
+        <v>183419.2296260369</v>
       </c>
       <c r="S28">
-        <v>0.007150997889144434</v>
+        <v>0.07204558917998018</v>
       </c>
       <c r="T28">
-        <v>0.007420062077157668</v>
+        <v>0.07393749918927101</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H29">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I29">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J29">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N29">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O29">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P29">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q29">
-        <v>21.89346830179883</v>
+        <v>938.7788029846782</v>
       </c>
       <c r="R29">
-        <v>131.360809810793</v>
+        <v>5632.672817908069</v>
       </c>
       <c r="S29">
-        <v>0.0002006613048939154</v>
+        <v>0.003318702455448327</v>
       </c>
       <c r="T29">
-        <v>0.0001388076053046682</v>
+        <v>0.002270567501328051</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H30">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I30">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J30">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N30">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O30">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P30">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q30">
-        <v>9.695723087947556</v>
+        <v>19869.79006541704</v>
       </c>
       <c r="R30">
-        <v>87.261507791528</v>
+        <v>178828.1105887533</v>
       </c>
       <c r="S30">
-        <v>8.886469790434102E-05</v>
+        <v>0.07024223477318814</v>
       </c>
       <c r="T30">
-        <v>9.220833024144042E-05</v>
+        <v>0.07208678887504116</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>15.79677433333333</v>
+        <v>349.8049826666667</v>
       </c>
       <c r="H31">
-        <v>47.390323</v>
+        <v>1049.414948</v>
       </c>
       <c r="I31">
-        <v>0.01775072507139627</v>
+        <v>0.174300134050847</v>
       </c>
       <c r="J31">
-        <v>0.01833332435500451</v>
+        <v>0.1773926242121129</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N31">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O31">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P31">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q31">
-        <v>1119.449992167253</v>
+        <v>7817.902795601822</v>
       </c>
       <c r="R31">
-        <v>10075.04992950528</v>
+        <v>70361.12516041638</v>
       </c>
       <c r="S31">
-        <v>0.01026015125128932</v>
+        <v>0.02763728060511349</v>
       </c>
       <c r="T31">
-        <v>0.01064620076607269</v>
+        <v>0.02836303284618091</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H32">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I32">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J32">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N32">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O32">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P32">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q32">
-        <v>57.57731384364833</v>
+        <v>443.6667246933549</v>
       </c>
       <c r="R32">
-        <v>345.46388306189</v>
+        <v>2662.000348160129</v>
       </c>
       <c r="S32">
-        <v>0.0005277162470965689</v>
+        <v>0.001568418294021265</v>
       </c>
       <c r="T32">
-        <v>0.0003650481022166545</v>
+        <v>0.001073069868329603</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H33">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I33">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J33">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2489,22 +2489,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O33">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P33">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q33">
-        <v>5.158849017242776</v>
+        <v>15.27244635741278</v>
       </c>
       <c r="R33">
-        <v>46.42964115518499</v>
+        <v>137.452017216715</v>
       </c>
       <c r="S33">
-        <v>4.728265806407543E-05</v>
+        <v>5.399004010945468E-05</v>
       </c>
       <c r="T33">
-        <v>4.906172025879802E-05</v>
+        <v>5.540781319518682E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H34">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I34">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J34">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N34">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O34">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P34">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q34">
-        <v>8963.572669253988</v>
+        <v>31301.42637110636</v>
       </c>
       <c r="R34">
-        <v>80672.15402328591</v>
+        <v>281712.8373399572</v>
       </c>
       <c r="S34">
-        <v>0.082154282890672</v>
+        <v>0.1106545229041789</v>
       </c>
       <c r="T34">
-        <v>0.08524542845671172</v>
+        <v>0.1135602996746725</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H35">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I35">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J35">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N35">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O35">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P35">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q35">
-        <v>251.5232441970608</v>
+        <v>1441.866486750748</v>
       </c>
       <c r="R35">
-        <v>1509.139465182365</v>
+        <v>8651.198920504485</v>
       </c>
       <c r="S35">
-        <v>0.002305298625873101</v>
+        <v>0.00509718139650673</v>
       </c>
       <c r="T35">
-        <v>0.001594692020660185</v>
+        <v>0.003487355248820774</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H36">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I36">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J36">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N36">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O36">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P36">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q36">
-        <v>111.3893738671155</v>
+        <v>30517.92850777156</v>
       </c>
       <c r="R36">
-        <v>1002.50436480404</v>
+        <v>274661.356569944</v>
       </c>
       <c r="S36">
-        <v>0.001020922624199069</v>
+        <v>0.1078847583178665</v>
       </c>
       <c r="T36">
-        <v>0.001059335964709414</v>
+        <v>0.110717801345686</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>181.4813383333333</v>
+        <v>537.2640283333333</v>
       </c>
       <c r="H37">
-        <v>544.4440149999999</v>
+        <v>1611.792085</v>
       </c>
       <c r="I37">
-        <v>0.2039293133121744</v>
+        <v>0.2677068561039729</v>
       </c>
       <c r="J37">
-        <v>0.2106225087374049</v>
+        <v>0.2724565989720045</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N37">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O37">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P37">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q37">
-        <v>12860.80806681266</v>
+        <v>12007.48461918267</v>
       </c>
       <c r="R37">
-        <v>115747.272601314</v>
+        <v>108067.3615726441</v>
       </c>
       <c r="S37">
-        <v>0.1178738102662695</v>
+        <v>0.04244798515129015</v>
       </c>
       <c r="T37">
-        <v>0.1223089424728482</v>
+        <v>0.04356266502130042</v>
       </c>
     </row>
   </sheetData>
